--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3027.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3027.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167942445694946</v>
+        <v>1.325597167015076</v>
       </c>
       <c r="B1">
-        <v>1.923638289651721</v>
+        <v>1.706166982650757</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.685916900634766</v>
       </c>
       <c r="D1">
-        <v>1.868721787167237</v>
+        <v>1.610659122467041</v>
       </c>
       <c r="E1">
-        <v>1.203170336174355</v>
+        <v>0.9554146528244019</v>
       </c>
     </row>
   </sheetData>
